--- a/Rancho/asignaciones.xlsx
+++ b/Rancho/asignaciones.xlsx
@@ -25,136 +25,136 @@
     <t>Imagen</t>
   </si>
   <si>
-    <t>52_7751491522</t>
-  </si>
-  <si>
-    <t>52_7751526472</t>
-  </si>
-  <si>
-    <t>52_7751545652</t>
-  </si>
-  <si>
-    <t>52_7751551278</t>
-  </si>
-  <si>
-    <t>52_7751552806</t>
-  </si>
-  <si>
-    <t>52_7751561155</t>
-  </si>
-  <si>
-    <t>52_7751566969</t>
-  </si>
-  <si>
-    <t>52_7751576504</t>
-  </si>
-  <si>
-    <t>52_7751592622</t>
-  </si>
-  <si>
-    <t>52_7751594298</t>
-  </si>
-  <si>
-    <t>52_7751596099</t>
-  </si>
-  <si>
-    <t>52_7751604395</t>
-  </si>
-  <si>
-    <t>52_7751624956</t>
-  </si>
-  <si>
-    <t>52_7751794960</t>
-  </si>
-  <si>
-    <t>52_7751801877</t>
-  </si>
-  <si>
-    <t>52_7751804162</t>
-  </si>
-  <si>
-    <t>52_7751827051</t>
-  </si>
-  <si>
-    <t>52_7751833179</t>
-  </si>
-  <si>
-    <t>52_7751850996</t>
-  </si>
-  <si>
-    <t>52_7751855637</t>
-  </si>
-  <si>
-    <t>52_7751865051</t>
-  </si>
-  <si>
-    <t>52_7751903176</t>
-  </si>
-  <si>
-    <t>52_7751911499</t>
-  </si>
-  <si>
-    <t>52_7751926967</t>
-  </si>
-  <si>
-    <t>52_7751959867</t>
-  </si>
-  <si>
-    <t>52_7751972136</t>
-  </si>
-  <si>
-    <t>52_7751980816</t>
-  </si>
-  <si>
-    <t>52_7752027301</t>
-  </si>
-  <si>
-    <t>52_7752030986</t>
-  </si>
-  <si>
-    <t>52_7752068853</t>
-  </si>
-  <si>
-    <t>52_7752140526</t>
-  </si>
-  <si>
-    <t>52_7752351332</t>
-  </si>
-  <si>
-    <t>52_7752369137</t>
-  </si>
-  <si>
-    <t>52_7752386580</t>
-  </si>
-  <si>
-    <t>52_7752513302</t>
-  </si>
-  <si>
-    <t>52_7752518367</t>
-  </si>
-  <si>
-    <t>52_7752584542</t>
-  </si>
-  <si>
-    <t>52_7752604840</t>
-  </si>
-  <si>
-    <t>52_7757078139</t>
-  </si>
-  <si>
-    <t>52_7757504291</t>
-  </si>
-  <si>
-    <t>52_7757522937</t>
-  </si>
-  <si>
-    <t>52_7757525021</t>
-  </si>
-  <si>
-    <t>52_7757527541</t>
-  </si>
-  <si>
-    <t>52_7757527577</t>
+    <t>52_7757554731</t>
+  </si>
+  <si>
+    <t>52_7757573183</t>
+  </si>
+  <si>
+    <t>52_7757582047</t>
+  </si>
+  <si>
+    <t>52_7757605307</t>
+  </si>
+  <si>
+    <t>52_7757847752</t>
+  </si>
+  <si>
+    <t>52_7761061274</t>
+  </si>
+  <si>
+    <t>52_7751144050</t>
+  </si>
+  <si>
+    <t>52_7752349890</t>
+  </si>
+  <si>
+    <t>52_7752250115</t>
+  </si>
+  <si>
+    <t>52_7711916618</t>
+  </si>
+  <si>
+    <t>52_7752142659</t>
+  </si>
+  <si>
+    <t>52_5512577630</t>
+  </si>
+  <si>
+    <t>52_5514836649</t>
+  </si>
+  <si>
+    <t>52_5574913650</t>
+  </si>
+  <si>
+    <t>52_5582872819</t>
+  </si>
+  <si>
+    <t>52_5585795791</t>
+  </si>
+  <si>
+    <t>52_7712142411</t>
+  </si>
+  <si>
+    <t>52_7716832240</t>
+  </si>
+  <si>
+    <t>52_7717002536</t>
+  </si>
+  <si>
+    <t>52_7717515336</t>
+  </si>
+  <si>
+    <t>52_7751018598</t>
+  </si>
+  <si>
+    <t>52_7751042979</t>
+  </si>
+  <si>
+    <t>52_7751156262</t>
+  </si>
+  <si>
+    <t>52_7751183348</t>
+  </si>
+  <si>
+    <t>52_7714402628</t>
+  </si>
+  <si>
+    <t>52_7751194697</t>
+  </si>
+  <si>
+    <t>52_7751196618</t>
+  </si>
+  <si>
+    <t>52_7751222770</t>
+  </si>
+  <si>
+    <t>52_7751253082</t>
+  </si>
+  <si>
+    <t>52_7751273964</t>
+  </si>
+  <si>
+    <t>52_7751342273</t>
+  </si>
+  <si>
+    <t>52_7751291667</t>
+  </si>
+  <si>
+    <t>52_7751191720</t>
+  </si>
+  <si>
+    <t>52_7751345491</t>
+  </si>
+  <si>
+    <t>52_7751362982</t>
+  </si>
+  <si>
+    <t>52_7751366634</t>
+  </si>
+  <si>
+    <t>52_7751384498</t>
+  </si>
+  <si>
+    <t>52_7751393720</t>
+  </si>
+  <si>
+    <t>52_7751428201</t>
+  </si>
+  <si>
+    <t>52_7751431775</t>
+  </si>
+  <si>
+    <t>52_7751434290</t>
+  </si>
+  <si>
+    <t>52_7751452644</t>
+  </si>
+  <si>
+    <t>52_7751484017</t>
+  </si>
+  <si>
+    <t>52_7751493612</t>
   </si>
   <si>
     <t>📢Le presento la Privada *★Olivo, Modelo Lugo★*

--- a/Rancho/asignaciones.xlsx
+++ b/Rancho/asignaciones.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
   <si>
     <t>Movil</t>
   </si>
@@ -25,136 +25,139 @@
     <t>Imagen</t>
   </si>
   <si>
-    <t>52_7757554731</t>
-  </si>
-  <si>
-    <t>52_7757573183</t>
-  </si>
-  <si>
-    <t>52_7757582047</t>
-  </si>
-  <si>
-    <t>52_7757605307</t>
-  </si>
-  <si>
-    <t>52_7757847752</t>
-  </si>
-  <si>
-    <t>52_7761061274</t>
-  </si>
-  <si>
-    <t>52_7751144050</t>
-  </si>
-  <si>
-    <t>52_7752349890</t>
-  </si>
-  <si>
-    <t>52_7752250115</t>
-  </si>
-  <si>
-    <t>52_7711916618</t>
-  </si>
-  <si>
-    <t>52_7752142659</t>
-  </si>
-  <si>
-    <t>52_5512577630</t>
-  </si>
-  <si>
-    <t>52_5514836649</t>
-  </si>
-  <si>
-    <t>52_5574913650</t>
-  </si>
-  <si>
-    <t>52_5582872819</t>
-  </si>
-  <si>
-    <t>52_5585795791</t>
-  </si>
-  <si>
-    <t>52_7712142411</t>
-  </si>
-  <si>
-    <t>52_7716832240</t>
-  </si>
-  <si>
-    <t>52_7717002536</t>
-  </si>
-  <si>
-    <t>52_7717515336</t>
-  </si>
-  <si>
-    <t>52_7751018598</t>
-  </si>
-  <si>
-    <t>52_7751042979</t>
-  </si>
-  <si>
-    <t>52_7751156262</t>
-  </si>
-  <si>
-    <t>52_7751183348</t>
-  </si>
-  <si>
-    <t>52_7714402628</t>
-  </si>
-  <si>
-    <t>52_7751194697</t>
-  </si>
-  <si>
-    <t>52_7751196618</t>
-  </si>
-  <si>
-    <t>52_7751222770</t>
-  </si>
-  <si>
-    <t>52_7751253082</t>
-  </si>
-  <si>
-    <t>52_7751273964</t>
-  </si>
-  <si>
-    <t>52_7751342273</t>
-  </si>
-  <si>
-    <t>52_7751291667</t>
-  </si>
-  <si>
-    <t>52_7751191720</t>
-  </si>
-  <si>
-    <t>52_7751345491</t>
-  </si>
-  <si>
-    <t>52_7751362982</t>
-  </si>
-  <si>
-    <t>52_7751366634</t>
-  </si>
-  <si>
-    <t>52_7751384498</t>
-  </si>
-  <si>
-    <t>52_7751393720</t>
-  </si>
-  <si>
-    <t>52_7751428201</t>
-  </si>
-  <si>
-    <t>52_7751431775</t>
-  </si>
-  <si>
-    <t>52_7751434290</t>
-  </si>
-  <si>
-    <t>52_7751452644</t>
-  </si>
-  <si>
-    <t>52_7751484017</t>
-  </si>
-  <si>
-    <t>52_7751493612</t>
+    <t>52_7751441859</t>
+  </si>
+  <si>
+    <t>52_7751456754</t>
+  </si>
+  <si>
+    <t>52_7751537112</t>
+  </si>
+  <si>
+    <t>52_7751551945</t>
+  </si>
+  <si>
+    <t>52_7751605551</t>
+  </si>
+  <si>
+    <t>52_7751609397</t>
+  </si>
+  <si>
+    <t>52_7751618134</t>
+  </si>
+  <si>
+    <t>52_7751674759</t>
+  </si>
+  <si>
+    <t>52_7751820501</t>
+  </si>
+  <si>
+    <t>52_7751855523</t>
+  </si>
+  <si>
+    <t>52_7751916237</t>
+  </si>
+  <si>
+    <t>52_7751928351</t>
+  </si>
+  <si>
+    <t>52_7751937397</t>
+  </si>
+  <si>
+    <t>52_7751980213</t>
+  </si>
+  <si>
+    <t>52_7751995043</t>
+  </si>
+  <si>
+    <t>52_7752018495</t>
+  </si>
+  <si>
+    <t>52_7752018993</t>
+  </si>
+  <si>
+    <t>52_7752026064</t>
+  </si>
+  <si>
+    <t>52_7752054219</t>
+  </si>
+  <si>
+    <t>52_7752055804</t>
+  </si>
+  <si>
+    <t>52_7752055827</t>
+  </si>
+  <si>
+    <t>52_7752061930</t>
+  </si>
+  <si>
+    <t>52_7752212730</t>
+  </si>
+  <si>
+    <t>52_7752282291</t>
+  </si>
+  <si>
+    <t>52_7752356335</t>
+  </si>
+  <si>
+    <t>52_7752359588</t>
+  </si>
+  <si>
+    <t>52_7752361643</t>
+  </si>
+  <si>
+    <t>52_7752509898</t>
+  </si>
+  <si>
+    <t>52_7752534040</t>
+  </si>
+  <si>
+    <t>52_7757067426</t>
+  </si>
+  <si>
+    <t>52_7751458051</t>
+  </si>
+  <si>
+    <t>52_7751357889</t>
+  </si>
+  <si>
+    <t>52_7757548955</t>
+  </si>
+  <si>
+    <t>52_5579934304</t>
+  </si>
+  <si>
+    <t>52_7751056494</t>
+  </si>
+  <si>
+    <t>52_7751323350</t>
+  </si>
+  <si>
+    <t>52_7751373509</t>
+  </si>
+  <si>
+    <t>52_7712029807</t>
+  </si>
+  <si>
+    <t>52_7712059478</t>
+  </si>
+  <si>
+    <t>52_7751036577</t>
+  </si>
+  <si>
+    <t>52_7751244729</t>
+  </si>
+  <si>
+    <t>52_7751267907</t>
+  </si>
+  <si>
+    <t>52_7751279804</t>
+  </si>
+  <si>
+    <t>52_7751280849</t>
+  </si>
+  <si>
+    <t>52_7751315193</t>
   </si>
   <si>
     <t>📢Le presento la Privada *★Olivo, Modelo Lugo★*
@@ -590,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,10 +615,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -623,10 +626,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -634,10 +637,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -645,10 +648,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -656,10 +659,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -667,10 +670,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -678,10 +681,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -689,10 +692,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -700,10 +703,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -711,10 +714,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -722,10 +725,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -733,10 +736,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -744,10 +747,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -755,10 +758,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -766,10 +769,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -777,10 +780,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -788,10 +791,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -799,10 +802,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -810,10 +813,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -821,10 +824,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -832,10 +835,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -843,10 +846,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -854,10 +857,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -865,10 +868,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -876,10 +879,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -887,10 +890,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -898,10 +901,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -909,10 +912,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -920,10 +923,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -931,10 +934,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -942,10 +945,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -953,10 +956,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -964,10 +967,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -975,10 +978,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -986,10 +989,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -997,10 +1000,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1008,10 +1011,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1019,10 +1022,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1030,10 +1033,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1041,10 +1044,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1052,10 +1055,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1063,10 +1066,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1074,10 +1077,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1085,9 +1088,20 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
         <v>52</v>
       </c>
     </row>

--- a/Rancho/asignaciones.xlsx
+++ b/Rancho/asignaciones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>52_7751336942</t>
+          <t>52_7751458954</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,14 +483,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>52_7751439465</t>
+          <t>52_7751590833</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -520,14 +520,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>52_7751458954</t>
+          <t>52_7751959975</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -557,14 +557,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>52_7751590833</t>
+          <t>52_7751965497</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -594,14 +594,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>52_7751959975</t>
+          <t>52_7755933031</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -631,14 +631,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\arboledas.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\arboledas.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>52_7751965497</t>
+          <t>52_7757508635</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -668,14 +668,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>52_7755933031</t>
+          <t>52_7225162217</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -705,14 +705,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>52_7757508635</t>
+          <t>52_7461183488</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -742,14 +742,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>52_7225162217</t>
+          <t>52_7711121664</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>52_7461183488</t>
+          <t>52_7711312865</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -816,14 +816,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>52_7711121664</t>
+          <t>52_7711806730</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -853,14 +853,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>52_7711312865</t>
+          <t>52_7712213750</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -890,14 +890,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>52_7711806730</t>
+          <t>52_7712326262</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -927,14 +927,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>52_7712213750</t>
+          <t>52_7712589363</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -964,14 +964,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>52_7712326262</t>
+          <t>52_7712628292</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1001,14 +1001,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>52_7712589363</t>
+          <t>52_7712629926</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1038,14 +1038,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\arboledas.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\arboledas.png</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>52_7712628292</t>
+          <t>52_7712638838</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1075,14 +1075,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>52_7712629926</t>
+          <t>52_7712638938</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1112,14 +1112,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>52_7712638838</t>
+          <t>52_7712892080</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1149,14 +1149,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>52_7712638938</t>
+          <t>52_7713863680</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1186,14 +1186,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>52_7712892080</t>
+          <t>52_7751002063</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1223,14 +1223,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>52_7713863680</t>
+          <t>52_7751013167</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1260,14 +1260,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>52_7751002063</t>
+          <t>52_7751017297</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1297,14 +1297,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>52_7751013167</t>
+          <t>52_7751031817</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>52_7751017297</t>
+          <t>52_7751035872</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1371,14 +1371,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>52_7751031817</t>
+          <t>52_7751062280</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1408,14 +1408,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>52_7751035872</t>
+          <t>52_7751066017</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1445,14 +1445,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>52_7751062280</t>
+          <t>52_7751084989</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1482,14 +1482,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>52_7751066017</t>
+          <t>52_7751098853</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1519,14 +1519,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>52_7751084989</t>
+          <t>52_7751099333</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1556,14 +1556,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>52_7751098853</t>
+          <t>52_7751102651</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1593,14 +1593,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\arboledas.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\arboledas.png</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>52_7751099333</t>
+          <t>52_7751103921</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1630,14 +1630,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>52_7751102651</t>
+          <t>52_7751114391</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1667,14 +1667,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\arboledas.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\arboledas.png</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>52_7751103921</t>
+          <t>52_7751180483</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1704,14 +1704,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>52_7751114391</t>
+          <t>52_7751192358</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1741,14 +1741,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\arboledas.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\arboledas.png</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>52_7751180483</t>
+          <t>52_7751196805</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1778,14 +1778,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>52_7751192358</t>
+          <t>52_7751200357</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1815,14 +1815,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>52_7751196805</t>
+          <t>52_7751220891</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1852,14 +1852,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>52_7751200357</t>
+          <t>52_7751232156</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1889,14 +1889,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\arboledas.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\arboledas.png</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>52_7751220891</t>
+          <t>52_7751240973</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1926,14 +1926,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\arboledas.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\arboledas.png</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>52_7751232156</t>
+          <t>52_7751247063</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1963,14 +1963,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\arboledas.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\arboledas.png</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>52_7751240973</t>
+          <t>52_7751249874</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2000,14 +2000,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>52_7751247063</t>
+          <t>52_7751251829</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2037,81 +2037,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>52_7751249874</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>📢Le presento la Privada *★Arboledas, Modelo Compostela★*
- _Tulancingo, Hidalgo  a 5 Minutos de Walmart_
-🎯 INFORMACION GENERAL :
-- 🟩 Terreno: 105 m²
-- 🏡 Construcción: 114 m²
-- 🛏️Habitaciones: 3 (2 en planta alta, con vestidor)
-- 🚽Baños: 2
-- 🚗Estacionamiento: 2
-- 📺 Sala
-- 🪑Comedor
-- 🌿Jardín
-⛳Amenidades:
-- 🌲Área Verde
-- 🥩Asador
-- 🛝Juegos Infantiles
-- 📍Céntrico: Valle Sol, 43648 Tulancingo, Hgo.
-💰Información Hipotecaria &amp; crediticia:
-*$1,695,000 MXN*
-1. Pago Promedio mensual: $17,731.23 MXN
-2. Ingreso mayor a los $47,094.01 MXN mensuales comprobables por pareja
-💡 ¿Le interesa obtener más información de esta propiedad?</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\arboledas.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>52_7751251829</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>📢Le presento la Privada *★Azucena, Modelo Dúplex★*
- _Tulancingo, Hidalgo  a 5 Minutos de Walmart_
-🎯INFORMACION GENERAL:
-- 🟩Plantas: 2
-- 🏡 Construcción: 95.9 m²
-- 🛏️Habitaciones: 2
-- 🚽Baños: 1 + 1/2
-- 🚗Estacionamiento: 2
-- 📺 Sala
-- 🪑Comedor
-- 🌿Jardín
-⛳Amenidades:
-- 🌲Área Verde
-- 🥩Asador
-- 🛝Juegos Infantiles
-- 📍Céntrico: Valle Sol, 43648 Tulancingo, Hgo.
-💰Información Hipotecaria &amp; crediticia:
-*$1,195,000 MXN*
-1. Pago Promedio mensual $11,000.35 MXN
-2. Ingreso mayor a los $25,511.47 MXN Mensuales comprobables por pareja
-💡 ¿Le interesa obtener más información de esta propiedad?</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>

--- a/Rancho/asignaciones.xlsx
+++ b/Rancho/asignaciones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>52_7751458954</t>
+          <t>7751328382</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,14 +483,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>52_7751590833</t>
+          <t>7751334251</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -520,14 +520,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>52_7751959975</t>
+          <t>7751363676</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -557,14 +557,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>52_7751965497</t>
+          <t>7751365462</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -594,14 +594,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>52_7755933031</t>
+          <t>7751367812</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -631,14 +631,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\arboledas.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\arboledas.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>52_7757508635</t>
+          <t>7751370077</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -668,14 +668,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>52_7225162217</t>
+          <t>7751370971</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -705,14 +705,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>52_7461183488</t>
+          <t>7751372928</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -742,14 +742,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>52_7711121664</t>
+          <t>7751381184</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>52_7711312865</t>
+          <t>7751392637</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -816,14 +816,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>52_7711806730</t>
+          <t>7751426258</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -853,14 +853,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>52_7712213750</t>
+          <t>7751440492</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -890,14 +890,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>52_7712326262</t>
+          <t>7751453454</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -927,14 +927,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>52_7712589363</t>
+          <t>7751459984</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -964,14 +964,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>52_7712628292</t>
+          <t>7751462924</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1001,14 +1001,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>52_7712629926</t>
+          <t>7751462929</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1038,14 +1038,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\arboledas.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\arboledas.png</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>52_7712638838</t>
+          <t>7751487804</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1075,14 +1075,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>52_7712638938</t>
+          <t>7751525879</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1112,14 +1112,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>52_7712892080</t>
+          <t>7751530477</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1149,14 +1149,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>52_7713863680</t>
+          <t>7751565027</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1186,14 +1186,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>52_7751002063</t>
+          <t>7751573591</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1223,14 +1223,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>52_7751013167</t>
+          <t>7751595992</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1260,14 +1260,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>52_7751017297</t>
+          <t>7751602161</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1297,14 +1297,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>52_7751031817</t>
+          <t>7751667861</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>52_7751035872</t>
+          <t>7751799082</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1371,14 +1371,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>52_7751062280</t>
+          <t>7751801239</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1408,14 +1408,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>52_7751066017</t>
+          <t>7751826728</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1445,14 +1445,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>52_7751084989</t>
+          <t>7751834460</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1482,14 +1482,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>52_7751098853</t>
+          <t>7751852912</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1519,14 +1519,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>52_7751099333</t>
+          <t>7751857407</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1556,14 +1556,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>52_7751102651</t>
+          <t>7751867357</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1593,14 +1593,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\arboledas.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\arboledas.png</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>52_7751103921</t>
+          <t>7751874933</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1630,14 +1630,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>52_7751114391</t>
+          <t>7751894500</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1667,14 +1667,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\arboledas.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\arboledas.png</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>52_7751180483</t>
+          <t>7751902153</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1704,14 +1704,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>52_7751192358</t>
+          <t>7751930204</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1741,14 +1741,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\arboledas.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\arboledas.png</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>52_7751196805</t>
+          <t>7751995401</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1778,14 +1778,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>52_7751200357</t>
+          <t>7752008638</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1815,14 +1815,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>52_7751220891</t>
+          <t>7752030382</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1852,14 +1852,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\olivo.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\olivo.png</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>52_7751232156</t>
+          <t>7752034134</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1889,14 +1889,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\arboledas.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\arboledas.png</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>52_7751240973</t>
+          <t>7752037735</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1926,14 +1926,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\arboledas.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\arboledas.png</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>52_7751247063</t>
+          <t>7752140580</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1963,14 +1963,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\arboledas.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\arboledas.png</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>52_7751249874</t>
+          <t>7752269781</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2000,14 +2000,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>52_7751251829</t>
+          <t>7752283861</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2037,7 +2037,81 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>C:\Users\Administrator\Desktop\WhatsAutoA\Images\azucena.png</t>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>7752291982</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>📢Le presento la Privada *★Arboledas, Modelo Compostela★*
+ _Tulancingo, Hidalgo  a 5 Minutos de Walmart_
+🎯 INFORMACION GENERAL :
+- 🟩 Terreno: 105 m²
+- 🏡 Construcción: 114 m²
+- 🛏️Habitaciones: 3 (2 en planta alta, con vestidor)
+- 🚽Baños: 2
+- 🚗Estacionamiento: 2
+- 📺 Sala
+- 🪑Comedor
+- 🌿Jardín
+⛳Amenidades:
+- 🌲Área Verde
+- 🥩Asador
+- 🛝Juegos Infantiles
+- 📍Céntrico: Valle Sol, 43648 Tulancingo, Hgo.
+💰Información Hipotecaria &amp; crediticia:
+*$1,695,000 MXN*
+1. Pago Promedio mensual: $17,731.23 MXN
+2. Ingreso mayor a los $47,094.01 MXN mensuales comprobables por pareja
+💡 ¿Le interesa obtener más información de esta propiedad?</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\arboledas.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>7752361818</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>📢Le presento la Privada *★Azucena, Modelo Dúplex★*
+ _Tulancingo, Hidalgo  a 5 Minutos de Walmart_
+🎯INFORMACION GENERAL:
+- 🟩Plantas: 2
+- 🏡 Construcción: 95.9 m²
+- 🛏️Habitaciones: 2
+- 🚽Baños: 1 + 1/2
+- 🚗Estacionamiento: 2
+- 📺 Sala
+- 🪑Comedor
+- 🌿Jardín
+⛳Amenidades:
+- 🌲Área Verde
+- 🥩Asador
+- 🛝Juegos Infantiles
+- 📍Céntrico: Valle Sol, 43648 Tulancingo, Hgo.
+💰Información Hipotecaria &amp; crediticia:
+*$1,195,000 MXN*
+1. Pago Promedio mensual $11,000.35 MXN
+2. Ingreso mayor a los $25,511.47 MXN Mensuales comprobables por pareja
+💡 ¿Le interesa obtener más información de esta propiedad?</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>C:\Users\4to Creativo\OneDrive\Desktop\WhatsAutoA\Images\azucena.png</t>
         </is>
       </c>
     </row>

--- a/Rancho/asignaciones.xlsx
+++ b/Rancho/asignaciones.xlsx
@@ -25,139 +25,139 @@
     <t>Imagen</t>
   </si>
   <si>
-    <t>7751381241</t>
-  </si>
-  <si>
-    <t>7751412250</t>
-  </si>
-  <si>
-    <t>7751413917</t>
-  </si>
-  <si>
-    <t>7751423496</t>
-  </si>
-  <si>
-    <t>7751438376</t>
-  </si>
-  <si>
-    <t>7751461241</t>
-  </si>
-  <si>
-    <t>7751506307</t>
-  </si>
-  <si>
-    <t>7751516069</t>
-  </si>
-  <si>
-    <t>7751560828</t>
-  </si>
-  <si>
-    <t>7751582594</t>
-  </si>
-  <si>
-    <t>7751589196</t>
-  </si>
-  <si>
-    <t>7751592223</t>
-  </si>
-  <si>
-    <t>7751596930</t>
-  </si>
-  <si>
-    <t>7751795616</t>
-  </si>
-  <si>
-    <t>7751828371</t>
-  </si>
-  <si>
-    <t>7751862515</t>
-  </si>
-  <si>
-    <t>7751883318</t>
-  </si>
-  <si>
-    <t>7751889334</t>
-  </si>
-  <si>
-    <t>7751914378</t>
-  </si>
-  <si>
-    <t>7752002056</t>
-  </si>
-  <si>
-    <t>7752013628</t>
-  </si>
-  <si>
-    <t>7752025333</t>
-  </si>
-  <si>
-    <t>7752054734</t>
-  </si>
-  <si>
-    <t>7752141330</t>
-  </si>
-  <si>
-    <t>7752149998</t>
-  </si>
-  <si>
-    <t>7752292945</t>
-  </si>
-  <si>
-    <t>7752326428</t>
-  </si>
-  <si>
-    <t>7752327115</t>
-  </si>
-  <si>
-    <t>7752348870</t>
-  </si>
-  <si>
-    <t>7752363699</t>
-  </si>
-  <si>
-    <t>7752371368</t>
-  </si>
-  <si>
-    <t>7752373425</t>
-  </si>
-  <si>
-    <t>7752433631</t>
-  </si>
-  <si>
-    <t>7752509938</t>
-  </si>
-  <si>
-    <t>7752523341</t>
-  </si>
-  <si>
-    <t>7752526002</t>
-  </si>
-  <si>
-    <t>7752537200</t>
-  </si>
-  <si>
-    <t>7752586323</t>
-  </si>
-  <si>
-    <t>7755931423</t>
-  </si>
-  <si>
-    <t>7757575008</t>
-  </si>
-  <si>
-    <t>7757579405</t>
-  </si>
-  <si>
-    <t>7751388059</t>
-  </si>
-  <si>
-    <t>7751432383</t>
-  </si>
-  <si>
-    <t>7751114268</t>
-  </si>
-  <si>
-    <t>7752425252</t>
+    <t>5540967227</t>
+  </si>
+  <si>
+    <t>7711494340</t>
+  </si>
+  <si>
+    <t>7717094773</t>
+  </si>
+  <si>
+    <t>7751002656</t>
+  </si>
+  <si>
+    <t>7751006947</t>
+  </si>
+  <si>
+    <t>7751030609</t>
+  </si>
+  <si>
+    <t>7751051663</t>
+  </si>
+  <si>
+    <t>7751052922</t>
+  </si>
+  <si>
+    <t>7751082906</t>
+  </si>
+  <si>
+    <t>7751119404</t>
+  </si>
+  <si>
+    <t>7751138144</t>
+  </si>
+  <si>
+    <t>7751146960</t>
+  </si>
+  <si>
+    <t>7751157124</t>
+  </si>
+  <si>
+    <t>7751201433</t>
+  </si>
+  <si>
+    <t>7751214037</t>
+  </si>
+  <si>
+    <t>7751214770</t>
+  </si>
+  <si>
+    <t>7751218860</t>
+  </si>
+  <si>
+    <t>7751234077</t>
+  </si>
+  <si>
+    <t>7751248104</t>
+  </si>
+  <si>
+    <t>7751261156</t>
+  </si>
+  <si>
+    <t>7751339642</t>
+  </si>
+  <si>
+    <t>7751343379</t>
+  </si>
+  <si>
+    <t>7751446812</t>
+  </si>
+  <si>
+    <t>7751452487</t>
+  </si>
+  <si>
+    <t>7751458054</t>
+  </si>
+  <si>
+    <t>7751484145</t>
+  </si>
+  <si>
+    <t>7751488037</t>
+  </si>
+  <si>
+    <t>7751536680</t>
+  </si>
+  <si>
+    <t>7751632989</t>
+  </si>
+  <si>
+    <t>7751832411</t>
+  </si>
+  <si>
+    <t>7751878600</t>
+  </si>
+  <si>
+    <t>7751905046</t>
+  </si>
+  <si>
+    <t>7751993572</t>
+  </si>
+  <si>
+    <t>7752054333</t>
+  </si>
+  <si>
+    <t>7752061011</t>
+  </si>
+  <si>
+    <t>7752067324</t>
+  </si>
+  <si>
+    <t>7752372416</t>
+  </si>
+  <si>
+    <t>7752413283</t>
+  </si>
+  <si>
+    <t>7752582208</t>
+  </si>
+  <si>
+    <t>7752602179</t>
+  </si>
+  <si>
+    <t>7752811851</t>
+  </si>
+  <si>
+    <t>7757071372</t>
+  </si>
+  <si>
+    <t>7757073582</t>
+  </si>
+  <si>
+    <t>7757562839</t>
+  </si>
+  <si>
+    <t>7757564739</t>
   </si>
   <si>
     <t>📢Le presento la Privada *★Olivo, Modelo Lugo★*

--- a/Rancho/asignaciones.xlsx
+++ b/Rancho/asignaciones.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>Movil</t>
   </si>
@@ -23,99 +23,6 @@
   </si>
   <si>
     <t>Imagen</t>
-  </si>
-  <si>
-    <t>52_5532722798</t>
-  </si>
-  <si>
-    <t>52_5570127192</t>
-  </si>
-  <si>
-    <t>52_7711616865</t>
-  </si>
-  <si>
-    <t>52_7751040339</t>
-  </si>
-  <si>
-    <t>52_7751064815</t>
-  </si>
-  <si>
-    <t>52_7751075452</t>
-  </si>
-  <si>
-    <t>52_7751077979</t>
-  </si>
-  <si>
-    <t>52_7751084564</t>
-  </si>
-  <si>
-    <t>52_7751393168</t>
-  </si>
-  <si>
-    <t>52_7751855640</t>
-  </si>
-  <si>
-    <t>52_7751091318</t>
-  </si>
-  <si>
-    <t>52_7751533113</t>
-  </si>
-  <si>
-    <t>52_7712911115</t>
-  </si>
-  <si>
-    <t>52_7751236000</t>
-  </si>
-  <si>
-    <t>52_7757073513</t>
-  </si>
-  <si>
-    <t>52_7757525369</t>
-  </si>
-  <si>
-    <t>52_7751238526</t>
-  </si>
-  <si>
-    <t>52_7751802047</t>
-  </si>
-  <si>
-    <t>52_7752604971</t>
-  </si>
-  <si>
-    <t>52_7751537772</t>
-  </si>
-  <si>
-    <t>52_7751107264</t>
-  </si>
-  <si>
-    <t>52_7751255978</t>
-  </si>
-  <si>
-    <t>52_7751309828</t>
-  </si>
-  <si>
-    <t>52_7751828459</t>
-  </si>
-  <si>
-    <t>52_7751850698</t>
-  </si>
-  <si>
-    <t>52_7751040510</t>
-  </si>
-  <si>
-    <t>52_7751175327</t>
-  </si>
-  <si>
-    <t>52_7751238963</t>
-  </si>
-  <si>
-    <t>52_7751238964</t>
-  </si>
-  <si>
-    <t>52_7751238968</t>
-  </si>
-  <si>
-    <t>52_7751238969</t>
   </si>
   <si>
     <t>52_7751264865</t>
@@ -574,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,10 +503,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -607,10 +514,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -618,10 +525,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -629,10 +536,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -640,10 +547,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -651,10 +558,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -662,10 +569,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -673,10 +580,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -684,10 +591,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -695,10 +602,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -706,10 +613,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -717,10 +624,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -728,10 +635,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -739,10 +646,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -750,10 +657,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -761,10 +668,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -772,10 +679,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -783,10 +690,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -794,10 +701,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -805,10 +712,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -816,351 +723,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
